--- a/flows/VUSB_fund_flow_data.xlsx
+++ b/flows/VUSB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B734"/>
+  <dimension ref="A1:B742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7775,6 +7775,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>9.869999999999999</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>27.148</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>-182.706</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
